--- a/data/CS3/case18_1/case18_1_2030.xlsx
+++ b/data/CS3/case18_1/case18_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449F422-EA67-49B0-9857-B16F06EBB5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36058216-8A87-4E1F-9AB5-E93A5846BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-12270" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/CS3/case18_1/case18_1_2030.xlsx
+++ b/data/CS3/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36058216-8A87-4E1F-9AB5-E93A5846BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56977B32-7D60-40D3-B2B6-CB3AF56E524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9228,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18351,7 +18351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case18_1/case18_1_2030.xlsx
+++ b/data/CS3/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56977B32-7D60-40D3-B2B6-CB3AF56E524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB49C6E-B253-4429-9F2D-5E723E0D93EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,11 +9242,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS3/case18_1/case18_1_2030.xlsx
+++ b/data/CS3/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB49C6E-B253-4429-9F2D-5E723E0D93EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D93F4-1A89-469B-B1A0-6162B570BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,13 +9242,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f t="shared" ref="C1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
